--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H2">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>0.950302667282</v>
+        <v>1.632746251070333</v>
       </c>
       <c r="R2">
-        <v>8.552724005538</v>
+        <v>14.694716259633</v>
       </c>
       <c r="S2">
-        <v>0.08269308440866821</v>
+        <v>0.08752847809457508</v>
       </c>
       <c r="T2">
-        <v>0.08269308440866821</v>
+        <v>0.08752847809457506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H3">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>6.343697487722</v>
+        <v>11.41847767697933</v>
       </c>
       <c r="R3">
-        <v>57.09327738949801</v>
+        <v>102.766299092814</v>
       </c>
       <c r="S3">
-        <v>0.5520135109329163</v>
+        <v>0.6121232693492354</v>
       </c>
       <c r="T3">
-        <v>0.5520135109329163</v>
+        <v>0.6121232693492352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.333947</v>
+      </c>
+      <c r="H4">
+        <v>1.001841</v>
+      </c>
+      <c r="I4">
+        <v>0.9184595666969813</v>
+      </c>
+      <c r="J4">
+        <v>0.9184595666969813</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.185529</v>
-      </c>
-      <c r="H4">
-        <v>0.5565869999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.8622170929313897</v>
-      </c>
-      <c r="J4">
-        <v>0.8622170929313897</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>0.103279356075</v>
+        <v>0.02146789421066667</v>
       </c>
       <c r="R4">
-        <v>0.929514204675</v>
+        <v>0.193211047896</v>
       </c>
       <c r="S4">
-        <v>0.008987124632628759</v>
+        <v>0.001150853726917575</v>
       </c>
       <c r="T4">
-        <v>0.008987124632628759</v>
+        <v>0.001150853726917575</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H5">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>2.236510165446</v>
+        <v>4.025032133929</v>
       </c>
       <c r="R5">
-        <v>20.128591489014</v>
+        <v>36.225289205361</v>
       </c>
       <c r="S5">
-        <v>0.1946158105827866</v>
+        <v>0.2157744577478678</v>
       </c>
       <c r="T5">
-        <v>0.1946158105827866</v>
+        <v>0.2157744577478678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H6">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>0.274743897329</v>
+        <v>0.03511608546933333</v>
       </c>
       <c r="R6">
-        <v>2.472695075961</v>
+        <v>0.316044769224</v>
       </c>
       <c r="S6">
-        <v>0.02390756237438986</v>
+        <v>0.001882507778385562</v>
       </c>
       <c r="T6">
-        <v>0.02390756237438986</v>
+        <v>0.001882507778385562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>0.1518590447424445</v>
+        <v>0.1449544885954445</v>
       </c>
       <c r="R7">
-        <v>1.366731402682</v>
+        <v>1.304590397359</v>
       </c>
       <c r="S7">
-        <v>0.0132144139309042</v>
+        <v>0.007770739495754108</v>
       </c>
       <c r="T7">
-        <v>0.0132144139309042</v>
+        <v>0.007770739495754106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
-        <v>1.013727387902445</v>
+        <v>1.013727387902444</v>
       </c>
       <c r="R8">
-        <v>9.123546491122001</v>
+        <v>9.123546491121999</v>
       </c>
       <c r="S8">
-        <v>0.08821215318163447</v>
+        <v>0.05434403258174605</v>
       </c>
       <c r="T8">
-        <v>0.08821215318163445</v>
+        <v>0.05434403258174603</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>0.01650411484166667</v>
+        <v>0.001905910134222222</v>
       </c>
       <c r="R9">
-        <v>0.148537033575</v>
+        <v>0.017153191208</v>
       </c>
       <c r="S9">
-        <v>0.001436148933050718</v>
+        <v>0.0001021722838586461</v>
       </c>
       <c r="T9">
-        <v>0.001436148933050718</v>
+        <v>0.0001021722838586461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>0.357395921294</v>
+        <v>0.3573405691003333</v>
       </c>
       <c r="R10">
-        <v>3.216563291646</v>
+        <v>3.216065121903</v>
       </c>
       <c r="S10">
-        <v>0.03109974548572782</v>
+        <v>0.01915636073535482</v>
       </c>
       <c r="T10">
-        <v>0.03109974548572781</v>
+        <v>0.01915636073535482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>0.04390427095877777</v>
+        <v>0.003117590505777778</v>
       </c>
       <c r="R11">
-        <v>0.395138438629</v>
+        <v>0.028058314552</v>
       </c>
       <c r="S11">
-        <v>0.003820445537293105</v>
+        <v>0.0001671282063051393</v>
       </c>
       <c r="T11">
-        <v>0.003820445537293105</v>
+        <v>0.0001671282063051393</v>
       </c>
     </row>
   </sheetData>
